--- a/root_node/exact/datos_verificacion_softplus_1como2.xlsx
+++ b/root_node/exact/datos_verificacion_softplus_1como2.xlsx
@@ -437,13 +437,13 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>1.018340349197388</v>
+        <v>0.1916451454162598</v>
       </c>
       <c r="F1" t="n">
         <v>1</v>
       </c>
       <c r="G1" t="n">
-        <v>13.19904425361331</v>
+        <v>13.17780845362639</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
@@ -461,13 +461,13 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>1.087171792984009</v>
+        <v>0.1910717487335205</v>
       </c>
       <c r="L1" t="n">
         <v>1</v>
       </c>
       <c r="M1" t="n">
-        <v>13.19904432989265</v>
+        <v>13.1778084536262</v>
       </c>
       <c r="N1" t="inlineStr">
         <is>
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>1.222874879837036</v>
+        <v>0.1923477649688721</v>
       </c>
       <c r="R1" t="n">
         <v>1</v>
       </c>
       <c r="S1" t="n">
-        <v>13.19904432441542</v>
+        <v>13.17780845362633</v>
       </c>
       <c r="T1" t="inlineStr">
         <is>
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.061281681060791</v>
+        <v>0.2212855815887451</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>84.89081962243722</v>
+        <v>84.9894183373767</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -544,13 +544,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1.101227760314941</v>
+        <v>0.2267704010009766</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>84.89081199401308</v>
+        <v>84.98941833737672</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.187272787094116</v>
+        <v>0.2223019599914551</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>84.89006288393182</v>
+        <v>84.98941833736968</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.061896562576294</v>
+        <v>0.4031596183776855</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.766876937660334</v>
+        <v>6.856928982057572</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1.020290613174438</v>
+        <v>0.3960766792297363</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>6.766874702160599</v>
+        <v>6.856928982057553</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.081279516220093</v>
+        <v>0.3951904773712158</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>6.766874702159887</v>
+        <v>6.856928982057572</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.577491998672485</v>
+        <v>0.5713937282562256</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>110.5814755157246</v>
+        <v>110.4649134966796</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1.358102321624756</v>
+        <v>0.6131761074066162</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>109.4642153633497</v>
+        <v>110.4569146718112</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.225019216537476</v>
+        <v>0.6110455989837646</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>110.3441509494004</v>
+        <v>110.4569113337964</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.332811832427979</v>
+        <v>0.4636363983154297</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8582595105109</v>
+        <v>117.933559162492</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1.408268928527832</v>
+        <v>0.4720954895019531</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>163.5971227929712</v>
+        <v>94.42772058703338</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -817,13 +817,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1.339300394058228</v>
+        <v>0.4625325202941895</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>130.721388587531</v>
+        <v>94.42772058703338</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.605531930923462</v>
+        <v>0.4670751094818115</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>88.59947392827155</v>
+        <v>88.59948654004044</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1.278789758682251</v>
+        <v>0.4778788089752197</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>88.59947263099114</v>
+        <v>88.59948654004974</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1.272938013076782</v>
+        <v>0.4707322120666504</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>88.59946975148671</v>
+        <v>88.59948654004972</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.497933149337769</v>
+        <v>0.9274730682373047</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>69.13738011013713</v>
+        <v>26.44620028567084</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1.817502498626709</v>
+        <v>0.9578135013580322</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>30.97946005911349</v>
+        <v>30.44376459388333</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>2.049372434616089</v>
+        <v>0.6742479801177979</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>29.88408623269091</v>
+        <v>96.84924250344436</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.627066850662231</v>
+        <v>0.5659482479095459</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>105.7760018736128</v>
+        <v>105.5735630386462</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>2.18841290473938</v>
+        <v>0.4905107021331787</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7324204152648</v>
+        <v>105.5529770791048</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>1.889236927032471</v>
+        <v>0.5034334659576416</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>105.7775394430096</v>
+        <v>105.5647405240162</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.130950689315796</v>
+        <v>0.5191030502319336</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>228.4848359255717</v>
+        <v>269.6302188789816</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>2.021809816360474</v>
+        <v>1.155091285705566</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>286.8385218591542</v>
+        <v>372.5965788088367</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.967602729797363</v>
+        <v>0.65926194190979</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>254.2303474520394</v>
+        <v>320.0325526272875</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1184,13 +1184,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.483370065689087</v>
+        <v>0.1255044937133789</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>88.19848794270655</v>
+        <v>88.19849101378007</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1.488231420516968</v>
+        <v>0.1315028667449951</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>88.19848794270654</v>
+        <v>88.19849101378009</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>1.712810039520264</v>
+        <v>0.121274471282959</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>88.19848794270655</v>
+        <v>88.1984910137801</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.578451633453369</v>
+        <v>1.130689382553101</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>174.5940328874882</v>
+        <v>150.5694577531491</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>4.076488256454468</v>
+        <v>1.031042337417603</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>184.972234963973</v>
+        <v>155.5407212743411</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>3.376549243927002</v>
+        <v>1.032227039337158</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>172.5111010167926</v>
+        <v>155.3889760866493</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.059916019439697</v>
+        <v>0.6331682205200195</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>96.04401681262672</v>
+        <v>96.04401597189585</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>2.695895671844482</v>
+        <v>0.8200998306274414</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>96.04401681262672</v>
+        <v>96.04401597189583</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>1.88312029838562</v>
+        <v>0.6177501678466797</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>96.04401680680412</v>
+        <v>96.04401597189586</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>

--- a/root_node/exact/datos_verificacion_softplus_1como2.xlsx
+++ b/root_node/exact/datos_verificacion_softplus_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +592,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -669,6 +681,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +770,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -835,6 +859,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -918,6 +948,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1001,6 +1037,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1084,6 +1126,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1167,6 +1215,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1250,6 +1304,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1333,6 +1393,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1412,6 +1478,1296 @@
         </is>
       </c>
       <c r="U12" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.191962718963623</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.17780845362639</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1933073997497559</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>13.1778084536262</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.1954383850097656</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>13.17780845362633</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>0.1757631301879883</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4.779318525543035</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2229561805725098</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>84.9894183373767</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2275676727294922</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>84.98941833737672</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.2234745025634766</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>84.98941833736968</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1628570556640625</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>63.83751861175721</v>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4018537998199463</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.856928982057572</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4003307819366455</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6.856928982057553</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3991563320159912</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6.856928982057572</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>0.3253638744354248</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.778258220861088e+21</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5706334114074707</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>110.4649134966796</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.6184923648834229</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>110.4569146718112</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.6156508922576904</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>110.4569113337964</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>0.394162654876709</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>195.1383912838893</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4669995307922363</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>117.933559162492</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4695510864257812</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>94.42772058703338</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.469681978225708</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>94.42772058703338</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>0.3210709095001221</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14.5342569450979</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4715547561645508</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>88.59948654004044</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.4795362949371338</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>88.59948654004974</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.4718530178070068</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>88.59948654004972</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>0.1202366352081299</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>60.77145628876769</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9314429759979248</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>26.44620028567084</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9632589817047119</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>30.44376459388333</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.6790845394134521</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>96.84924250344436</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>0.8720319271087646</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7.684672812770708</v>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.566312313079834</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>105.5735630386462</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4924061298370361</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>105.5529770791048</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.5033442974090576</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>105.5647405240162</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>0.5519509315490723</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>125.4120732031362</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5222499370574951</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>269.6302188789816</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1.210461378097534</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>372.5965788088367</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6646652221679688</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>320.0325526272875</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5128698348999023</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>14.33524698045868</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1260254383087158</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>88.19849101378007</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1329548358917236</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>88.19849101378009</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.122657299041748</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>88.1984910137801</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2065243721008301</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>74.52920340615431</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1.136450052261353</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>150.5694577531491</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1.035998106002808</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>155.5407212743411</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.042188167572021</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>155.3889760866493</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>1.271876335144043</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13.43663154624606</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6371383666992188</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>96.04401597189585</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8269510269165039</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>96.04401597189583</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.6162388324737549</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>96.04401597189586</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>1.706223011016846</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>86.50700224580046</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
         <is>
           <t>totalnodelimit</t>
         </is>

--- a/root_node/exact/datos_verificacion_softplus_1como2.xlsx
+++ b/root_node/exact/datos_verificacion_softplus_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2773,6 +2773,642 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1916625499725342</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13.1778084421163</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2252311706542969</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>84.9894183104808</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4001846313476562</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6.856928982504164</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5264554023742676</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>110.4649134962935</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4624066352844238</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>117.933558295537</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4800221920013428</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>88.5994865045044</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1.062801122665405</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>64.37295147175544</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5192363262176514</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>105.567709180313</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.514193058013916</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>269.6356432931099</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.122394323348999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>88.19849123734247</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9480023384094238</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>153.3284041960818</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5721039772033691</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>96.04401595562338</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
